--- a/CoreRulebook/Data/Spells/illusion.xlsx
+++ b/CoreRulebook/Data/Spells/illusion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAC37B2-D1A5-4E5F-9659-F61D1F15F445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A107DC69-5A5D-4076-A82B-5C22AAB2F838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,9 +427,6 @@
     <t xml:space="preserve">Target an object between 1m and 20m in size. Caster decides upon a single species, and imbues the target with an aura that either attracts or repels (caster\apos{}s choice) that species in a radius of (10$\times$(1+PP)) metres. Members of the species that fail to resist feel an irresistible urge to either approach or flee the object. Effect lasts for (1+PP) days. </t>
   </si>
   <si>
-    <t>Chameleon\apos{} Camouflage</t>
-  </si>
-  <si>
     <t>dissimulo</t>
   </si>
   <si>
@@ -740,6 +737,9 @@
   </si>
   <si>
     <t xml:space="preserve">A master-level caster drains 4d4 FP per turn. </t>
+  </si>
+  <si>
+    <t>Illusory Disguise</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1238,10 @@
   <dimension ref="A1:AMF33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="16" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>21</v>
@@ -1698,21 +1698,21 @@
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -1721,7 +1721,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1">
         <v>3</v>
@@ -1730,59 +1730,59 @@
         <v>35</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1791,53 +1791,53 @@
         <v>3</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I20" s="1">
         <v>12</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G21" s="1">
         <v>4</v>
@@ -1849,18 +1849,18 @@
         <v>12</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
@@ -1875,24 +1875,24 @@
         <v>24</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1904,27 +1904,27 @@
         <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G24" s="1">
         <v>5</v>
@@ -1936,47 +1936,47 @@
         <v>12</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G25" s="1">
         <v>5</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I25" s="1">
         <v>12</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
@@ -1988,30 +1988,30 @@
         <v>5</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="G27" s="1">
         <v>5</v>
@@ -2023,18 +2023,18 @@
         <v>18</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>21</v>
@@ -2052,21 +2052,21 @@
         <v>14</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>21</v>
@@ -2084,50 +2084,50 @@
         <v>25</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
@@ -2139,78 +2139,78 @@
         <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="G32" s="4">
         <v>2</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G33" s="1">
         <v>3</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Spells/illusion.xlsx
+++ b/CoreRulebook/Data/Spells/illusion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A107DC69-5A5D-4076-A82B-5C22AAB2F838}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E4F01E-6978-4D12-B77A-10960B5E2C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1238,10 +1238,10 @@
   <dimension ref="A1:AMF33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/CoreRulebook/Data/Spells/illusion.xlsx
+++ b/CoreRulebook/Data/Spells/illusion.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E4F01E-6978-4D12-B77A-10960B5E2C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -27,83 +22,83 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="157">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Discipline</t>
-  </si>
-  <si>
-    <t>Incantation</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>TravelType</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Resist</t>
-  </si>
-  <si>
-    <t>ResistDV</t>
-  </si>
-  <si>
-    <t>Effect</t>
-  </si>
-  <si>
-    <t>HigherLevel</t>
-  </si>
-  <si>
-    <t>Blur</t>
-  </si>
-  <si>
-    <t>Bewitchment</t>
-  </si>
-  <si>
-    <t>celeritate</t>
-  </si>
-  <si>
-    <t>Instant</t>
-  </si>
-  <si>
-    <t>3 turns</t>
-  </si>
-  <si>
-    <t>The target seems to become blurry around the edges, it is difficult to tell exactly where they are, and where they aren{\apos}t.
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incantation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TravelType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResistDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HigherLevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bewitchment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celeritate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 turns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The target seems to become blurry around the edges, it is difficult to tell exactly where they are, and where they aren{\apos}t.
 Gain check advantage on evasion checks for 3 turns.</t>
   </si>
   <si>
     <t xml:space="preserve">When cast by an adept-level caster, the first attack directed at the target also automatically misses. </t>
   </si>
   <si>
-    <t>Chaotic Whispers</t>
-  </si>
-  <si>
-    <t>Psionics</t>
-  </si>
-  <si>
-    <t>rastarum</t>
-  </si>
-  <si>
-    <t>Concentration</t>
-  </si>
-  <si>
-    <t>Wand-tip glows purple</t>
-  </si>
-  <si>
-    <t>2 minutes</t>
-  </si>
-  <si>
-    <t>SPR (endurance)</t>
-  </si>
-  <si>
-    <t>CC</t>
+    <t xml:space="preserve">Chaotic Whispers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psionics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rastarum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wand-tip glows purple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPR (endurance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC</t>
   </si>
   <si>
     <t xml:space="preserve">Whilst the caster maintains concentration, the target hears a voice in their ear whispering maddening words, that slowly drive them insane. Target may perform a resit check once per turn, when one succeeds, the spell is broken. Whispers do (1+PP)d4 psychic damage per turn that the spell is active. </t>
@@ -116,7 +111,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>At 7</t>
+      <t xml:space="preserve">At 7</t>
     </r>
     <r>
       <rPr>
@@ -126,16 +121,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, 15</t>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, 15</t>
     </r>
     <r>
       <rPr>
@@ -145,7 +140,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -164,7 +159,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -177,28 +172,28 @@
     </r>
   </si>
   <si>
-    <t>Charm Entity</t>
-  </si>
-  <si>
-    <t>sismeus amici</t>
-  </si>
-  <si>
-    <t>Green rays</t>
-  </si>
-  <si>
-    <t>1 hour</t>
-  </si>
-  <si>
-    <t>If target is not overtly hostile, this spell causes then to like you: persuasion checks by the caster on the individual get a (2+PP) bonus (max 5).</t>
-  </si>
-  <si>
-    <t>Glamour</t>
-  </si>
-  <si>
-    <t>lux stultium</t>
-  </si>
-  <si>
-    <t>INT (perception)</t>
+    <t xml:space="preserve">Charm Entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sismeus amici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green rays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If target is not overtly hostile, this spell causes then to like you: persuasion checks by the caster on the individual get a (2+PP) bonus (max 5).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glamour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lux stultium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT (perception)</t>
   </si>
   <si>
     <t xml:space="preserve"> Create a superficial glamour around a person or object, a simple trick of the light. The glamour disintegrates upon physical or magical contact, and can be seen to be fake if observer succeeds on a Resist check. </t>
@@ -211,7 +206,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>When cast by a character greater than 8</t>
+      <t xml:space="preserve">When cast by a character greater than 8</t>
     </r>
     <r>
       <rPr>
@@ -221,7 +216,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -234,124 +229,124 @@
     </r>
   </si>
   <si>
-    <t>Imbue Bravery</t>
-  </si>
-  <si>
-    <t>fortudus</t>
-  </si>
-  <si>
-    <t>Golden rays</t>
+    <t xml:space="preserve">Imbue Bravery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fortudus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden rays</t>
   </si>
   <si>
     <t xml:space="preserve">Imbue your target with fortitude and vigour. They gain check-advantage on all Fear-Resist checks for 1 hour. </t>
   </si>
   <si>
-    <t>Night Vision</t>
-  </si>
-  <si>
-    <t>aspectu</t>
-  </si>
-  <si>
-    <t>2 hours</t>
+    <t xml:space="preserve">Night Vision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aspectu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hours</t>
   </si>
   <si>
     <t xml:space="preserve">Give the target nightvision for one hour: dim light is as bright as daylight, and darkness is consdiered dim. </t>
   </si>
   <si>
-    <t>Throw Voice</t>
-  </si>
-  <si>
-    <t>ventrilofors</t>
-  </si>
-  <si>
-    <t>Cast your voice such that it appears to be coming from somewhere up to 5+$\times PP$ metres away.</t>
+    <t xml:space="preserve">Throw Voice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ventrilofors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cast your voice such that it appears to be coming from somewhere up to 5+$\times PP$ metres away.</t>
   </si>
   <si>
     <t xml:space="preserve">Calming Aura
 </t>
   </si>
   <si>
-    <t>paxus</t>
-  </si>
-  <si>
-    <t>Golden mist</t>
-  </si>
-  <si>
-    <t>Calms the target down. Remove terrified status from target.</t>
-  </si>
-  <si>
-    <t>Conceal Inscription</t>
-  </si>
-  <si>
-    <t>occulto</t>
-  </si>
-  <si>
-    <t>10 years</t>
+    <t xml:space="preserve">paxus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden mist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calms the target down. Remove terrified status from target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceal Inscription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">occulto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 years</t>
   </si>
   <si>
     <t xml:space="preserve">Makes a message, drawing or marking on a surface invisible to the naked eye. </t>
   </si>
   <si>
-    <t>Enchant Animal</t>
-  </si>
-  <si>
-    <t>nonparum</t>
-  </si>
-  <si>
-    <t>4 turns</t>
+    <t xml:space="preserve">Enchant Animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nonparum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 turns</t>
   </si>
   <si>
     <t xml:space="preserve">Commune with a non-aggressive animal: it will join you as an ally for 4 turns. </t>
   </si>
   <si>
-    <t>Piper{\apos}s Illusion</t>
-  </si>
-  <si>
-    <t>Music (5 turns)</t>
-  </si>
-  <si>
-    <t>This spell is performed by playing an instrument and layering it with magic. All those who hear ithe song are hypnotised if they fail a Resist check. Hyponotised individuals cannot take any actions. When the spell ends, all entranced targets take (1+PP)d10 psychic damage.
+    <t xml:space="preserve">Piper{\apos}s Illusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music (5 turns)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This spell is performed by playing an instrument and layering it with magic. All those who hear ithe song are hypnotised if they fail a Resist check. Hyponotised individuals cannot take any actions. When the spell ends, all entranced targets take (1+PP)d10 psychic damage.
 This spell is not blocked by non-specialist wards or shields.</t>
   </si>
   <si>
     <t xml:space="preserve">When cast by an Expert-level caster, ritual only takes 2 turns to complete. </t>
   </si>
   <si>
-    <t>Sleep</t>
-  </si>
-  <si>
-    <t>somnus</t>
-  </si>
-  <si>
-    <t>(3 + 2$\times$PP) turns</t>
-  </si>
-  <si>
-    <t>If target fails to resist, they enter into a deep slumber for (5 + 2 $\times$ PP) turns</t>
-  </si>
-  <si>
-    <t>Violent Phantasms</t>
-  </si>
-  <si>
-    <t>umbra impetia</t>
-  </si>
-  <si>
-    <t>Purple bolt</t>
-  </si>
-  <si>
-    <t>(3 + PP) turns</t>
-  </si>
-  <si>
-    <t>This spell causes the target to believe that multiple phantasms are attacking them target, doing (1+PP)d4 psychic damage for every turn that the phantasms are active. Once the original spell hits the targets, phantasms exist only within the target{\apos}s mind, and so are not stopped by shields or wards (except antimagic wards).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>At 9</t>
+    <t xml:space="preserve">Sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somnus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3 + 2$\times$PP) turns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If target fails to resist, they enter into a deep slumber for (5 + 2 $\times$ PP) turns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violent Phantasms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">umbra impetia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purple bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3 + PP) turns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This spell causes the target to believe that multiple phantasms are attacking them target, doing (1+PP)d4 psychic damage for every turn that the phantasms are active. Once the original spell hits the targets, phantasms exist only within the target{\apos}s mind, and so are not stopped by shields or wards (except antimagic wards).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">At 9</t>
     </r>
     <r>
       <rPr>
@@ -361,16 +356,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, 14</t>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, 14</t>
     </r>
     <r>
       <rPr>
@@ -380,7 +375,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -399,7 +394,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -412,22 +407,25 @@
     </r>
   </si>
   <si>
-    <t>Beguiling Totem</t>
-  </si>
-  <si>
-    <t>fascinare</t>
-  </si>
-  <si>
-    <t>(1+PP) days</t>
-  </si>
-  <si>
-    <t>EMP (perception)</t>
+    <t xml:space="preserve">Beguiling Totem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fascinare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1+PP) days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP (perception)</t>
   </si>
   <si>
     <t xml:space="preserve">Target an object between 1m and 20m in size. Caster decides upon a single species, and imbues the target with an aura that either attracts or repels (caster\apos{}s choice) that species in a radius of (10$\times$(1+PP)) metres. Members of the species that fail to resist feel an irresistible urge to either approach or flee the object. Effect lasts for (1+PP) days. </t>
   </si>
   <si>
-    <t>dissimulo</t>
+    <t xml:space="preserve">Illusory Disguise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dissimulo</t>
   </si>
   <si>
     <t xml:space="preserve">Causes the target to take on the exact colour and texture of the background, making them hard to spot when stationary. 
@@ -441,7 +439,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>When cast by a character greater than 8</t>
+      <t xml:space="preserve">When cast by a character greater than 8</t>
     </r>
     <r>
       <rPr>
@@ -451,7 +449,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -464,31 +462,31 @@
     </r>
   </si>
   <si>
-    <t>False Friend</t>
-  </si>
-  <si>
-    <t>amicus maxmius</t>
-  </si>
-  <si>
-    <t>10 minutes</t>
+    <t xml:space="preserve">False Friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amicus maxmius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 minutes</t>
   </si>
   <si>
     <t xml:space="preserve">Gain a (2 + 1 \cvdv) bonus on all CHR checks directed at the target for 10 minutes. At the end of the spell, or if they succeed in Resisting the target becomes aware that you have enchanted and deceived them, and will become hostile, or otherwise seek vengeance. </t>
   </si>
   <si>
-    <t>Fury</t>
-  </si>
-  <si>
-    <t>irafors</t>
-  </si>
-  <si>
-    <t>Red bolt</t>
-  </si>
-  <si>
-    <t>1 + 1 \cvdv turns</t>
-  </si>
-  <si>
-    <t>EMP (willpower)</t>
+    <t xml:space="preserve">Fury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irafors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 + 1 \cvdv turns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP (willpower)</t>
   </si>
   <si>
     <t xml:space="preserve">Target performs a Resist Magic check, if they fail, target flies into a mindless rage and begins attacking all those around them. </t>
@@ -501,7 +499,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>When cast by a character greater than 12</t>
+      <t xml:space="preserve">When cast by a character greater than 12</t>
     </r>
     <r>
       <rPr>
@@ -511,7 +509,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -524,127 +522,127 @@
     </r>
   </si>
   <si>
-    <t>Shatter Illusions</t>
-  </si>
-  <si>
-    <t>conlidus</t>
-  </si>
-  <si>
-    <t>Orange rays</t>
+    <t xml:space="preserve">Shatter Illusions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conlidus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange rays</t>
   </si>
   <si>
     <t xml:space="preserve">Remove all illusion spells from the target, if the casting check exceeds the casting check of the most poweful illusion. </t>
   </si>
   <si>
-    <t>Suggestion</t>
-  </si>
-  <si>
-    <t>facite</t>
-  </si>
-  <si>
-    <t>(8 + 8$\times$PP) hours</t>
-  </si>
-  <si>
-    <t>SPR (Willpower)</t>
+    <t xml:space="preserve">Suggestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8 + 8$\times$PP) hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPR (Willpower)</t>
   </si>
   <si>
     <t xml:space="preserve">Make a suggestion to a target within hearing range. The suggestion must be reasonable (i.e. no stabbing themselves) and limited to a single sentence. If target fails to resist, they must obey this suggestion for up to (8 $\times$ PP) hours. </t>
   </si>
   <si>
-    <t>Delusion</t>
-  </si>
-  <si>
-    <t>falasarium</t>
-  </si>
-  <si>
-    <t>If target fails a Resist check, the caster may make them believe one piece of information, which they will believe to be irrefutably true. The delusion must be vaguely rational, and may not incur excessive self-harm, as judged by the GM. Delusion lasts for (8 $\times$ PP) hours.</t>
-  </si>
-  <si>
-    <t>Entrance Other</t>
-  </si>
-  <si>
-    <t>meamicus</t>
+    <t xml:space="preserve">Delusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falasarium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If target fails a Resist check, the caster may make them believe one piece of information, which they will believe to be irrefutably true. The delusion must be vaguely rational, and may not incur excessive self-harm, as judged by the GM. Delusion lasts for (8 $\times$ PP) hours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrance Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meamicus</t>
   </si>
   <si>
     <t xml:space="preserve">If the target fails a resist magic check (with a penalty = PP), they become hopelessly besotted with the caster for 2 turns. Besotted individuals take check double disadvantage in all negative actions relating to their beloved. </t>
   </si>
   <si>
-    <t>Relive Memory</t>
-  </si>
-  <si>
-    <t>legilimens</t>
-  </si>
-  <si>
-    <t>Green bolt</t>
-  </si>
-  <si>
-    <t>10 + PP</t>
+    <t xml:space="preserve">Relive Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legilimens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 + PP</t>
   </si>
   <si>
     <t xml:space="preserve">Target performs a resist magic check, if it fails, the caster forces the target to relive a specific memory, which they may also view. </t>
   </si>
   <si>
-    <t>Mass Delusion</t>
-  </si>
-  <si>
-    <t>falasarium maxima</t>
-  </si>
-  <si>
-    <t>Apply the {\it Delusion} spell to 2d6 targets of your choice. The delusion is the same to all targets.</t>
-  </si>
-  <si>
-    <t>Mass Suggestion</t>
-  </si>
-  <si>
-    <t>faciite maxima</t>
-  </si>
-  <si>
-    <t>Apply the {\it Suggestion} spell to 2d6 targets of your choice. The suggestion is the same to all targets.</t>
-  </si>
-  <si>
-    <t>Modify Memory</t>
-  </si>
-  <si>
-    <t>obliviate</t>
+    <t xml:space="preserve">Mass Delusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falasarium maxima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply the {\it Delusion} spell to 2d6 targets of your choice. The delusion is the same to all targets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass Suggestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faciite maxima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply the {\it Suggestion} spell to 2d6 targets of your choice. The suggestion is the same to all targets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obliviate</t>
   </si>
   <si>
     <t xml:space="preserve">If target fails a Resist SPR(willpower) check, you may modify the memories of the target, even causing them to forget skills and spells that they currently know. 
 </t>
   </si>
   <si>
-    <t>True Illusion</t>
-  </si>
-  <si>
-    <t>stultuvisus</t>
-  </si>
-  <si>
-    <t>Ritual (10 minutes)</t>
-  </si>
-  <si>
-    <t>10 hours</t>
+    <t xml:space="preserve">True Illusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stultuvisus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritual (10 minutes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 hours</t>
   </si>
   <si>
     <t xml:space="preserve">Create a perfect illusion of an environment (up to 20m in radius) or people (up to 3), which can be interacted with and touched by the target. Illusions can only have the knowledge that the caster has.
 Illusion lasts for 10 hours. An observer may determine that the illusion is not real  by performing a Resist as a major action. </t>
   </si>
   <si>
-    <t>Illusory Construction</t>
-  </si>
-  <si>
-    <t>lux</t>
-  </si>
-  <si>
-    <t>Create an illusion, a construction of light. Illusion is silent and non-corporeal, but does not disintegrate on contact. Illusion may be manipulated and moved by the caster whilst concentration is maintained. An observer may determine that the illusion is not real by performing a Resist check as a major action.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>When cast by a character greater than 14</t>
+    <t xml:space="preserve">Illusory Construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create an illusion, a construction of light. Illusion is silent and non-corporeal, but does not disintegrate on contact. Illusion may be manipulated and moved by the caster whilst concentration is maintained. An observer may determine that the illusion is not real by performing a Resist check as a major action.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">When cast by a character greater than 14</t>
     </r>
     <r>
       <rPr>
@@ -654,7 +652,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>th</t>
+      <t xml:space="preserve">th</t>
     </r>
     <r>
       <rPr>
@@ -667,34 +665,34 @@
     </r>
   </si>
   <si>
-    <t>Psychosomatism</t>
-  </si>
-  <si>
-    <t>animo materia</t>
+    <t xml:space="preserve">Psychosomatism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animo materia</t>
   </si>
   <si>
     <t xml:space="preserve">You produce an illusion not out of light, but in the mind of the target. If the target fails to resist, they see in their mind whatever the caster wishes, and react accordingly. No actual HP or FP is removed by the illusions, but the character acts as if they have. </t>
   </si>
   <si>
-    <t>Hypnotic Lights</t>
-  </si>
-  <si>
-    <t>fascum</t>
-  </si>
-  <si>
-    <t>Multicoloured Orbs</t>
-  </si>
-  <si>
-    <t>1 minute</t>
+    <t xml:space="preserve">Hypnotic Lights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fascum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multicoloured Orbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 minute</t>
   </si>
   <si>
     <t xml:space="preserve">Multicoloured, iridiescent orbs dance in the sky, fascinating up to 1d4 creatures that see them, if they have INT &lt; 8. These creatures cannot remove their gaze from the orbs, and will stop all other actions for the duration of the hypnotism. </t>
   </si>
   <si>
-    <t>Suppress Intelligence</t>
-  </si>
-  <si>
-    <t>romanes</t>
+    <t xml:space="preserve">Suppress Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">romanes</t>
   </si>
   <si>
     <t xml:space="preserve">INT </t>
@@ -703,16 +701,16 @@
     <t xml:space="preserve">By touching your wand-tip to the head of the target, reduce their INT attribute by (2+PP) points for the duration of the spell. </t>
   </si>
   <si>
-    <t>Silence</t>
-  </si>
-  <si>
-    <t>silencio</t>
-  </si>
-  <si>
-    <t>(2+2$\times$PP) turns</t>
-  </si>
-  <si>
-    <t>Orange bolt</t>
+    <t xml:space="preserve">Silence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silencio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2+2$\times$PP) turns</t>
   </si>
   <si>
     <t xml:space="preserve">If the target fails to Resist, they may not speak or otherwise vocalise for the duration of the spell. </t>
@@ -721,37 +719,52 @@
     <t xml:space="preserve">A master-level caster may cast this spell on 1d4 targets within range. </t>
   </si>
   <si>
-    <t>Drain Fortitude</t>
+    <t xml:space="preserve">Drain Fortitude</t>
   </si>
   <si>
     <t xml:space="preserve">delcrus </t>
   </si>
   <si>
-    <t>Blue Thread</t>
-  </si>
-  <si>
-    <t>SPR (Endurance)</t>
+    <t xml:space="preserve">Blue Thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPR (Endurance)</t>
   </si>
   <si>
     <t xml:space="preserve">By imposing your will over that of your target, you do  2d4 Fatigue damage to the target per turn and add it to your own FP reserve. This spell does not cost FP to sustain, however if your concentration is broken i.e. by an attack,  then the effect is negated and no `drain' happens. </t>
   </si>
   <si>
     <t xml:space="preserve">A master-level caster drains 4d4 FP per turn. </t>
-  </si>
-  <si>
-    <t>Illusory Disguise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="8"/>
@@ -788,14 +801,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -811,35 +824,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -898,367 +945,59 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J27" totalsRowShown="0">
-  <autoFilter ref="A1:J27" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J27" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:J27"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Discipline"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Incantation"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="TravelType"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Duration"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Level"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Resist"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ResistDV"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Effect"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Discipline"/>
+    <tableColumn id="3" name="Incantation"/>
+    <tableColumn id="4" name="Type"/>
+    <tableColumn id="5" name="TravelType"/>
+    <tableColumn id="6" name="Duration"/>
+    <tableColumn id="7" name="Level"/>
+    <tableColumn id="8" name="Resist"/>
+    <tableColumn id="9" name="ResistDV"/>
+    <tableColumn id="10" name="Effect"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMF33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2:K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" style="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" style="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="10" width="60.85546875" style="2" customWidth="1"/>
-    <col min="11" max="1020" width="11.5703125" style="1"/>
-    <col min="1021" max="1025" width="8.7109375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="60.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="11" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1309,7 +1048,7 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1319,7 +1058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="34.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1338,7 +1077,7 @@
       <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1354,7 +1093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1373,14 +1112,14 @@
       <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1396,13 +1135,13 @@
       <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1412,7 +1151,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -1431,14 +1170,14 @@
       <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -1454,14 +1193,14 @@
       <c r="F7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1474,17 +1213,17 @@
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
@@ -1500,17 +1239,17 @@
       <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -1526,14 +1265,14 @@
       <c r="F10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -1549,14 +1288,14 @@
       <c r="F11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="34.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
@@ -1566,10 +1305,10 @@
       <c r="D12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1585,7 +1324,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1601,7 +1340,7 @@
       <c r="F13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -1614,7 +1353,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="34.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1633,7 +1372,7 @@
       <c r="F14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1649,7 +1388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="34.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
@@ -1665,7 +1404,7 @@
       <c r="F15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -1678,41 +1417,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -1721,146 +1460,146 @@
         <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="1">
+        <v>86</v>
+      </c>
+      <c r="G17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="1">
+        <v>91</v>
+      </c>
+      <c r="G18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="1">
+        <v>97</v>
+      </c>
+      <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="1">
+        <v>101</v>
+      </c>
+      <c r="G20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="1">
+        <v>102</v>
+      </c>
+      <c r="I20" s="1" t="n">
         <v>12</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="1">
+        <v>101</v>
+      </c>
+      <c r="G21" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="1" t="n">
         <v>12</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
@@ -1868,213 +1607,213 @@
       <c r="F22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="1">
+        <v>112</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="1">
+        <v>101</v>
+      </c>
+      <c r="G24" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="1" t="n">
         <v>12</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="1">
+        <v>101</v>
+      </c>
+      <c r="G25" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25" s="1">
+        <v>102</v>
+      </c>
+      <c r="I25" s="1" t="n">
         <v>12</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="56.25" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="42.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="1">
+        <v>127</v>
+      </c>
+      <c r="G27" s="1" t="n">
         <v>5</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="1" t="n">
         <v>18</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="34.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="1" t="n">
         <v>14</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="1" t="n">
         <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -2084,50 +1823,50 @@
         <v>25</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="33.75" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="1">
+        <v>139</v>
+      </c>
+      <c r="G30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
@@ -2135,28 +1874,28 @@
       <c r="F31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>14</v>
@@ -2165,63 +1904,64 @@
         <v>147</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" s="4">
+        <v>148</v>
+      </c>
+      <c r="G32" s="4" t="n">
         <v>2</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" s="1">
+        <v>153</v>
+      </c>
+      <c r="G33" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
+  <tableParts>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>